--- a/输出结果/渠道统计.xlsx
+++ b/输出结果/渠道统计.xlsx
@@ -522,28 +522,28 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E2">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>61</v>
@@ -558,16 +558,16 @@
         <v>254</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -628,31 +628,31 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D4">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E4">
-        <v>3109</v>
+        <v>3170</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>18</v>
@@ -664,16 +664,16 @@
         <v>531</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,19 +690,19 @@
         <v>222</v>
       </c>
       <c r="E5">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>26</v>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,34 +734,34 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="C6">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D6">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E6">
         <v>197</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>108</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -770,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="N6">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
         <v>10</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1289</v>
+        <v>1306</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1002,25 +1002,25 @@
         <v>503</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E11">
-        <v>633</v>
+        <v>561</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1032,19 +1032,19 @@
         <v>20</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1114,16 +1114,16 @@
         <v>224</v>
       </c>
       <c r="E13">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
